--- a/resources/cellcyclegenes.xlsx
+++ b/resources/cellcyclegenes.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B64053-08F2-46E5-93EB-26EA78745FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB6FC9-C040-4316-885B-958AEF59A739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="2640" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regev_cell_cycle_genes" sheetId="1" r:id="rId1"/>
     <sheet name="Macosko_cell_cycle_genes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Seurat_cell_cycle_genes" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="575">
   <si>
     <t>S</t>
   </si>
@@ -1734,6 +1735,24 @@
   </si>
   <si>
     <t xml:space="preserve">% </t>
+  </si>
+  <si>
+    <t>MCM7</t>
+  </si>
+  <si>
+    <t>CENPU</t>
+  </si>
+  <si>
+    <t>POLR1B</t>
+  </si>
+  <si>
+    <t>MRPL36</t>
+  </si>
+  <si>
+    <t>PIMREG</t>
+  </si>
+  <si>
+    <t>JPT1</t>
   </si>
 </sst>
 </file>
@@ -2066,9 +2085,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2084,7 +2103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2092,7 +2111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2100,7 +2119,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2127,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2116,7 +2135,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2124,7 +2143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2140,7 +2159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2148,7 +2167,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2156,7 +2175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2164,7 +2183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2172,7 +2191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2180,7 +2199,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2188,7 +2207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2196,7 +2215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2204,7 +2223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2212,7 +2231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2220,7 +2239,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2228,7 +2247,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2236,7 +2255,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2244,7 +2263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2252,7 +2271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2260,7 +2279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2268,7 +2287,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2276,7 +2295,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2284,7 +2303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2292,7 +2311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2300,7 +2319,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2308,7 +2327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2316,7 +2335,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2324,7 +2343,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2332,7 +2351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2340,7 +2359,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2348,7 +2367,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2356,7 +2375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2364,7 +2383,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2372,7 +2391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2380,7 +2399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2388,7 +2407,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2396,7 +2415,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2404,7 +2423,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2412,7 +2431,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2420,57 +2439,57 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>98</v>
       </c>
@@ -2489,9 +2508,9 @@
       <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
@@ -2508,7 +2527,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -2525,7 +2544,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -2542,7 +2561,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -2559,7 +2578,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -2576,7 +2595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -2593,7 +2612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -2610,7 +2629,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2627,7 +2646,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -2644,7 +2663,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -2661,7 +2680,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -2678,7 +2697,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -2695,7 +2714,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -2712,7 +2731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>151</v>
       </c>
@@ -2729,7 +2748,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -2746,7 +2765,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2763,7 +2782,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -2780,7 +2799,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2797,7 +2816,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2814,7 +2833,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -2831,7 +2850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2848,7 +2867,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -2865,7 +2884,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -2882,7 +2901,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>187</v>
       </c>
@@ -2899,7 +2918,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2916,7 +2935,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2933,7 +2952,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -2950,7 +2969,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>199</v>
       </c>
@@ -2967,7 +2986,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>203</v>
       </c>
@@ -2984,7 +3003,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>208</v>
       </c>
@@ -3001,7 +3020,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>213</v>
       </c>
@@ -3018,7 +3037,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3035,7 +3054,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3052,7 +3071,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -3069,7 +3088,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>226</v>
       </c>
@@ -3086,7 +3105,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>229</v>
       </c>
@@ -3103,7 +3122,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -3120,7 +3139,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -3137,7 +3156,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>241</v>
       </c>
@@ -3154,7 +3173,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3171,7 +3190,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>249</v>
       </c>
@@ -3188,7 +3207,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -3205,7 +3224,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -3222,7 +3241,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -3239,7 +3258,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>265</v>
       </c>
@@ -3256,7 +3275,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>269</v>
       </c>
@@ -3273,7 +3292,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>273</v>
       </c>
@@ -3290,7 +3309,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>277</v>
       </c>
@@ -3307,7 +3326,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>282</v>
       </c>
@@ -3324,7 +3343,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>287</v>
       </c>
@@ -3341,7 +3360,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>289</v>
       </c>
@@ -3358,7 +3377,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>293</v>
       </c>
@@ -3375,7 +3394,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>298</v>
       </c>
@@ -3392,7 +3411,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -3409,7 +3428,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -3426,7 +3445,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -3443,7 +3462,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -3460,7 +3479,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>313</v>
       </c>
@@ -3477,7 +3496,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>318</v>
       </c>
@@ -3494,7 +3513,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>322</v>
       </c>
@@ -3511,7 +3530,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -3528,7 +3547,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -3545,7 +3564,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>334</v>
       </c>
@@ -3562,7 +3581,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>338</v>
       </c>
@@ -3579,7 +3598,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>342</v>
       </c>
@@ -3596,7 +3615,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>346</v>
       </c>
@@ -3613,7 +3632,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>350</v>
       </c>
@@ -3630,7 +3649,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>354</v>
       </c>
@@ -3647,7 +3666,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>357</v>
       </c>
@@ -3664,7 +3683,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>362</v>
       </c>
@@ -3681,7 +3700,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -3698,7 +3717,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>368</v>
       </c>
@@ -3715,7 +3734,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -3732,7 +3751,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>376</v>
       </c>
@@ -3749,7 +3768,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -3766,7 +3785,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>383</v>
       </c>
@@ -3783,7 +3802,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>387</v>
       </c>
@@ -3800,7 +3819,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>392</v>
       </c>
@@ -3817,7 +3836,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>396</v>
       </c>
@@ -3834,7 +3853,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>401</v>
       </c>
@@ -3851,7 +3870,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>406</v>
       </c>
@@ -3868,7 +3887,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>410</v>
       </c>
@@ -3885,7 +3904,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -3902,7 +3921,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>418</v>
       </c>
@@ -3919,7 +3938,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>422</v>
       </c>
@@ -3936,7 +3955,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>427</v>
       </c>
@@ -3953,7 +3972,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>429</v>
       </c>
@@ -3970,7 +3989,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>431</v>
       </c>
@@ -3987,7 +4006,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -4004,7 +4023,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>439</v>
       </c>
@@ -4021,7 +4040,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>442</v>
       </c>
@@ -4038,7 +4057,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>445</v>
       </c>
@@ -4055,7 +4074,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -4072,7 +4091,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -4089,7 +4108,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -4106,7 +4125,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>457</v>
       </c>
@@ -4123,7 +4142,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>462</v>
       </c>
@@ -4140,7 +4159,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -4157,7 +4176,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>469</v>
       </c>
@@ -4174,7 +4193,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>473</v>
       </c>
@@ -4191,7 +4210,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>478</v>
       </c>
@@ -4208,7 +4227,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>482</v>
       </c>
@@ -4222,7 +4241,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>485</v>
       </c>
@@ -4236,7 +4255,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>489</v>
       </c>
@@ -4250,7 +4269,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>493</v>
       </c>
@@ -4264,7 +4283,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>51</v>
       </c>
@@ -4278,7 +4297,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>500</v>
       </c>
@@ -4292,7 +4311,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>503</v>
       </c>
@@ -4303,7 +4322,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>3</v>
       </c>
@@ -4314,7 +4333,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>507</v>
       </c>
@@ -4325,7 +4344,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>510</v>
       </c>
@@ -4336,7 +4355,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>38</v>
       </c>
@@ -4347,7 +4366,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>514</v>
       </c>
@@ -4358,7 +4377,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>517</v>
       </c>
@@ -4369,7 +4388,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>520</v>
       </c>
@@ -4377,7 +4396,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>57</v>
       </c>
@@ -4385,7 +4404,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>523</v>
       </c>
@@ -4393,7 +4412,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>51</v>
       </c>
@@ -4401,7 +4420,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>526</v>
       </c>
@@ -4409,7 +4428,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>528</v>
       </c>
@@ -4417,7 +4436,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>530</v>
       </c>
@@ -4425,7 +4444,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>532</v>
       </c>
@@ -4433,7 +4452,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>534</v>
       </c>
@@ -4441,7 +4460,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>536</v>
       </c>
@@ -4449,7 +4468,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>538</v>
       </c>
@@ -4457,7 +4476,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>69</v>
       </c>
@@ -4465,7 +4484,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>540</v>
       </c>
@@ -4473,7 +4492,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>542</v>
       </c>
@@ -4481,7 +4500,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>48</v>
       </c>
@@ -4489,7 +4508,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>544</v>
       </c>
@@ -4497,7 +4516,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>545</v>
       </c>
@@ -4505,7 +4524,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>546</v>
       </c>
@@ -4513,7 +4532,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>548</v>
       </c>
@@ -4521,7 +4540,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>550</v>
       </c>
@@ -4529,92 +4548,92 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>563</v>
       </c>
@@ -4626,36 +4645,459 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E21AAB1-3E0B-4963-A10D-E97F7E05B774}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>570</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>571</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>572</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610A2D13-C587-4A05-954C-F9CCA5BDB2E8}">
   <dimension ref="D4:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>568</v>
       </c>
